--- a/Result/RFEBasedResult.xlsx
+++ b/Result/RFEBasedResult.xlsx
@@ -471,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8127853881278538</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8093227424749164</v>
+        <v>0.7775083612040135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8115526993254035</v>
+        <v>0.7795465520069682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809315335065512</v>
+        <v>0.7775013003749777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8127853881278538</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H2" t="n">
-        <v>0.805860096821979</v>
+        <v>0.7741948045998076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.194139903178021</v>
+        <v>0.2258051954001924</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1872146118721462</v>
+        <v>0.2191780821917808</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -503,28 +503,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7442922374429224</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7413461538461539</v>
+        <v>0.7099916387959866</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7431622157649554</v>
+        <v>0.711567875897088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.741340300006634</v>
+        <v>0.7099877921425075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7442922374429224</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7384000702493854</v>
+        <v>0.7076545104686855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2615999297506146</v>
+        <v>0.2923454895313145</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2557077625570776</v>
+        <v>0.2876712328767124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -535,28 +535,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7990867579908676</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7985785953177257</v>
+        <v>0.8081939799331104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7990867579908676</v>
+        <v>0.8082912761355442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7985784336371284</v>
+        <v>0.8081939795402922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7990867579908676</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7980704326445838</v>
+        <v>0.808168781784029</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2019295673554162</v>
+        <v>0.191831218215971</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2009132420091324</v>
+        <v>0.1917808219178082</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -567,28 +567,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7488584474885844</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7410953177257525</v>
+        <v>0.7323996655518396</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7417803623018872</v>
+        <v>0.7332137043623996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7410546563994586</v>
+        <v>0.7323630209961152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7488584474885844</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7333321879629205</v>
+        <v>0.7250733037064186</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2666678120370795</v>
+        <v>0.2749266962935814</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2511415525114156</v>
+        <v>0.2602739726027398</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -599,28 +599,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.821917808219178</v>
+        <v>0.8310502283105022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8203177257525083</v>
+        <v>0.8290133779264213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8216191691804512</v>
+        <v>0.8306033556855914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8203161652191595</v>
+        <v>0.8290108756955414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821917808219178</v>
+        <v>0.8310502283105022</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8187176432858386</v>
+        <v>0.8269765275423406</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1812823567141614</v>
+        <v>0.1730234724576594</v>
       </c>
       <c r="J6" t="n">
-        <v>0.178082191780822</v>
+        <v>0.1689497716894978</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -663,28 +663,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.776255707762557</v>
+        <v>0.7853881278538812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7727006688963211</v>
+        <v>0.7827759197324415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7747824943157261</v>
+        <v>0.7845759048773605</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7726924908470907</v>
+        <v>0.7827715611094337</v>
       </c>
       <c r="G8" t="n">
-        <v>0.776255707762557</v>
+        <v>0.7853881278538812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.769145630030085</v>
+        <v>0.7801637116110016</v>
       </c>
       <c r="I8" t="n">
-        <v>0.230854369969915</v>
+        <v>0.2198362883889984</v>
       </c>
       <c r="J8" t="n">
-        <v>0.223744292237443</v>
+        <v>0.2146118721461188</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -695,28 +695,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.776255707762557</v>
+        <v>0.771689497716895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7722408026755851</v>
+        <v>0.7688127090301003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7744102964487661</v>
+        <v>0.7706805497901389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7722303657938963</v>
+        <v>0.7688073267425678</v>
       </c>
       <c r="G9" t="n">
-        <v>0.776255707762557</v>
+        <v>0.771689497716895</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7682258975886135</v>
+        <v>0.7659359203433058</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2317741024113865</v>
+        <v>0.2340640796566942</v>
       </c>
       <c r="J9" t="n">
-        <v>0.223744292237443</v>
+        <v>0.228310502283105</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -727,28 +727,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7808219178082192</v>
+        <v>0.7625570776255708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7775083612040135</v>
+        <v>0.7578177257525083</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7795465520069682</v>
+        <v>0.7599266615500304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7775013003749777</v>
+        <v>0.7578029057799444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7808219178082192</v>
+        <v>0.7625570776255708</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7741948045998076</v>
+        <v>0.753078373879446</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2258051954001924</v>
+        <v>0.246921626120554</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2191780821917808</v>
+        <v>0.2374429223744292</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7168949771689498</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7134197324414716</v>
+        <v>0.6955685618729097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7152476296756675</v>
+        <v>0.6972983257229832</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7134112680011055</v>
+        <v>0.6955618240126271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7168949771689498</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7099444877139935</v>
+        <v>0.6925069867595179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2900555122860065</v>
+        <v>0.3074930132404821</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2831050228310502</v>
+        <v>0.3013698630136986</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -791,28 +791,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>0.730593607305936</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7283026755852842</v>
+        <v>0.7456939799331104</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7298810266337811</v>
+        <v>0.7475783275208577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7282990724259747</v>
+        <v>0.7456872654495129</v>
       </c>
       <c r="G12" t="n">
-        <v>0.730593607305936</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7260117438646325</v>
+        <v>0.7425295123776362</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2739882561353675</v>
+        <v>0.2574704876223638</v>
       </c>
       <c r="J12" t="n">
-        <v>0.269406392694064</v>
+        <v>0.2511415525114156</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -823,28 +823,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5251141552511416</v>
+        <v>0.5159817351598174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5101170568561872</v>
+        <v>0.4959030100334449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4779796329158634</v>
+        <v>0.4220886926366378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5098965568969364</v>
+        <v>0.4954963573605062</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5251141552511416</v>
+        <v>0.5159817351598174</v>
       </c>
       <c r="H13" t="n">
-        <v>0.495119958461233</v>
+        <v>0.4758242849070723</v>
       </c>
       <c r="I13" t="n">
-        <v>0.504880041538767</v>
+        <v>0.5241757150929277</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4748858447488584</v>
+        <v>0.4840182648401826</v>
       </c>
     </row>
   </sheetData>
